--- a/biology/Botanique/Rossignola/Rossignola.xlsx
+++ b/biology/Botanique/Rossignola/Rossignola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La rossignola est un cépage italien de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage Rossignola est d'origine inconnue mais il est diffusé en Italie du nord.
 Il est classé cépage secondaire en DOC Bardolino et Valpolicella. Notamment cultivé autour du lac de Garde, il est classé recommandé dans la province de Vicence en Vénétie. En 1998, sa culture couvrait une superficie de 68 ha.
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux, blanc à liseré rosé.
 Jeunes feuilles duveteuses, vert bronzées.
@@ -576,7 +592,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de quatrième époque: 40 jours après le chasselas.
 </t>
@@ -607,7 +625,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes et les baies sont de taille moyenne à grande. La grappe est cylindrique ou pyramidale, avec 2 ailerons courts, lâche. Le cépage est de bonne vigueur. La molinara préfère une taille longue donnant ainsi une production abondante et constante.  
 </t>
@@ -638,7 +658,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La rossignola est connu sous les noms de gropello, rossetta, rossetta del lago, rossignola della Valle Pulicella, rossignola di montagna, rossignola veronese,  rossiola.
 </t>
